--- a/BackTest/2020-01-12 BackTest BCD.xlsx
+++ b/BackTest/2020-01-12 BackTest BCD.xlsx
@@ -1991,17 +1991,13 @@
         <v>416.1133333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>410</v>
-      </c>
-      <c r="K46" t="n">
-        <v>410</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2030,22 +2026,14 @@
         <v>415.9433333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>411</v>
-      </c>
-      <c r="K47" t="n">
-        <v>410</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2073,22 +2061,14 @@
         <v>415.8266666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>409.8</v>
-      </c>
-      <c r="K48" t="n">
-        <v>410</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +2096,14 @@
         <v>415.7399999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>417.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>410</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2159,22 +2131,14 @@
         <v>415.6533333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>409.9</v>
-      </c>
-      <c r="K50" t="n">
-        <v>410</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2166,14 @@
         <v>415.4266666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>409.9</v>
-      </c>
-      <c r="K51" t="n">
-        <v>410</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2245,22 +2201,14 @@
         <v>415.1933333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>409.9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>410</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2236,14 @@
         <v>415.0716666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>409.8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>410</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2331,22 +2271,14 @@
         <v>415.005</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>411.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>410</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2374,22 +2306,14 @@
         <v>414.9083333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>417.2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>410</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2417,22 +2341,14 @@
         <v>414.785</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>408</v>
-      </c>
-      <c r="K56" t="n">
-        <v>410</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2376,14 @@
         <v>414.73</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>412</v>
-      </c>
-      <c r="K57" t="n">
-        <v>410</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2503,22 +2411,14 @@
         <v>414.5066666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>408.1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>410</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2446,14 @@
         <v>414.3983333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>408.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>410</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2589,22 +2481,14 @@
         <v>414.2883333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>408.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>410</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2632,22 +2516,14 @@
         <v>414.1850000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>408.4</v>
-      </c>
-      <c r="K61" t="n">
-        <v>410</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2675,22 +2551,14 @@
         <v>414.0966666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>408.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>410</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2718,22 +2586,14 @@
         <v>414.0100000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>408.4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>410</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2761,22 +2621,14 @@
         <v>413.9300000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>409</v>
-      </c>
-      <c r="K64" t="n">
-        <v>410</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2804,22 +2656,14 @@
         <v>413.8500000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>408.3</v>
-      </c>
-      <c r="K65" t="n">
-        <v>410</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2847,22 +2691,14 @@
         <v>413.7866666666668</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>408.4</v>
-      </c>
-      <c r="K66" t="n">
-        <v>410</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2890,22 +2726,14 @@
         <v>413.7383333333335</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>408.3</v>
-      </c>
-      <c r="K67" t="n">
-        <v>410</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2933,22 +2761,14 @@
         <v>413.6100000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>408.4</v>
-      </c>
-      <c r="K68" t="n">
-        <v>410</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2976,22 +2796,14 @@
         <v>413.4850000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>408.3</v>
-      </c>
-      <c r="K69" t="n">
-        <v>410</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3019,22 +2831,14 @@
         <v>413.5033333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>408</v>
-      </c>
-      <c r="K70" t="n">
-        <v>410</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3062,22 +2866,14 @@
         <v>413.2966666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>409</v>
-      </c>
-      <c r="K71" t="n">
-        <v>410</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3105,22 +2901,14 @@
         <v>413.1666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>409.1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>410</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3148,22 +2936,14 @@
         <v>413.055</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>409.1</v>
-      </c>
-      <c r="K73" t="n">
-        <v>410</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3191,22 +2971,14 @@
         <v>412.945</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>412</v>
-      </c>
-      <c r="K74" t="n">
-        <v>410</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3234,22 +3006,14 @@
         <v>412.8533333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>409.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>410</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3277,22 +3041,14 @@
         <v>412.745</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>410.3</v>
-      </c>
-      <c r="K76" t="n">
-        <v>410</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3320,22 +3076,14 @@
         <v>412.6533333333334</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>413</v>
-      </c>
-      <c r="K77" t="n">
-        <v>410</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3363,22 +3111,14 @@
         <v>412.5616666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>410.3</v>
-      </c>
-      <c r="K78" t="n">
-        <v>410</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3406,22 +3146,14 @@
         <v>412.375</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>411.4</v>
-      </c>
-      <c r="K79" t="n">
-        <v>410</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3449,22 +3181,14 @@
         <v>412.3616666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>415</v>
-      </c>
-      <c r="K80" t="n">
-        <v>410</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3492,22 +3216,14 @@
         <v>412.3983333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>414</v>
-      </c>
-      <c r="K81" t="n">
-        <v>410</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3535,22 +3251,14 @@
         <v>412.3183333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>417</v>
-      </c>
-      <c r="K82" t="n">
-        <v>410</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3578,22 +3286,14 @@
         <v>412.3383333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>417</v>
-      </c>
-      <c r="K83" t="n">
-        <v>410</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3621,22 +3321,14 @@
         <v>412.2300000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>414</v>
-      </c>
-      <c r="K84" t="n">
-        <v>410</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3664,22 +3356,14 @@
         <v>412.1666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>417</v>
-      </c>
-      <c r="K85" t="n">
-        <v>410</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3707,22 +3391,14 @@
         <v>412.1900000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>417.2</v>
-      </c>
-      <c r="K86" t="n">
-        <v>410</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +3426,14 @@
         <v>412.3116666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>417.2</v>
-      </c>
-      <c r="K87" t="n">
-        <v>410</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3461,14 @@
         <v>412.4466666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>423</v>
-      </c>
-      <c r="K88" t="n">
-        <v>410</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3842,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>410</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3883,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>410</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3924,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>410</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3965,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>410</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4006,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>410</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4047,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>410</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4088,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>410</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4129,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>410</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4170,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>410</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4211,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>410</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4252,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>410</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4293,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>410</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4334,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>410</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4375,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>410</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4416,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>410</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4457,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>410</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4498,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>410</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4539,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>410</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4580,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>410</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>410</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4662,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>410</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4703,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>410</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4744,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>410</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4785,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>410</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4826,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>410</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4867,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>410</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4908,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>410</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4949,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>410</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4990,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>410</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5031,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>410</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>410</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5113,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>410</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5154,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>410</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>410</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5236,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>410</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5277,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>410</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5318,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>410</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5359,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>410</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5400,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>410</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5441,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>410</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5482,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>410</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5523,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>410</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5564,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>410</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5605,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>410</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5646,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>410</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5687,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>410</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5728,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>410</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5769,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>410</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5810,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>410</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5851,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>410</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5892,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>410</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5933,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>410</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5974,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>410</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6015,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>410</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6056,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>410</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6097,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>410</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6138,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>410</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6179,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>410</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6220,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>410</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6261,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>410</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6299,17 +5599,11 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>410</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6343,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>410</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6384,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>410</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6425,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>410</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6466,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>410</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6507,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>410</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6548,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>410</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>410</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6630,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>410</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6671,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>410</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6712,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>410</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6753,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>410</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6794,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>410</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6832,17 +6054,11 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>410</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6873,17 +6089,11 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>410</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6914,17 +6124,11 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>410</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6958,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>410</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>410</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7040,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>410</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7081,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>410</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7122,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>410</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7163,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>410</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7204,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>410</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7245,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>410</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7286,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>410</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7327,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>410</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7368,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>410</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7409,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>410</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7450,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>410</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7491,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>410</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7532,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>410</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7573,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>410</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7614,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>410</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7655,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>410</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7696,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>410</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7737,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>410</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7778,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>410</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7819,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>410</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7860,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>410</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7901,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>410</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7942,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>410</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7983,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>410</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>410</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8065,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>410</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8106,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>410</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8147,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>410</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>410</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8229,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>410</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8270,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>410</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8311,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>410</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8352,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>410</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>410</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8434,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>410</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8475,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>410</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8516,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>410</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8557,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>410</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8598,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>410</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8639,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>410</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8680,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>410</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8721,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>410</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8762,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>410</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8803,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>410</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8844,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>410</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8885,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>410</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8926,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>410</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8967,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>410</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9008,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>410</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9049,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>410</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9090,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>410</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9131,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>410</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9172,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>410</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9213,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>410</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9254,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>410</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9295,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>410</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9336,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>410</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9377,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>410</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9418,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>410</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9459,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>410</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9500,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>410</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9541,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>410</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9582,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>410</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9623,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>410</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9664,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>410</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9705,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>410</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9746,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>410</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9787,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>410</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9828,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>410</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9869,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>410</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9910,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>410</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9951,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>410</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9992,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>410</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10033,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>410</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10074,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>410</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10115,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>410</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10156,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>410</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10197,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>410</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>410</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10279,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>410</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10320,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>410</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10361,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>410</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10402,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>410</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10443,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>410</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10484,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>410</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10525,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>410</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10566,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>410</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10607,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>410</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10648,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>410</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10689,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>410</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10730,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>410</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10771,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>410</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10812,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>410</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10853,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>410</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10894,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>410</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10935,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>410</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10976,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>410</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11017,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>410</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11058,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>410</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11099,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>410</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11140,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>410</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11181,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>410</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11222,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>410</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11263,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>410</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11304,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>410</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11345,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>410</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11386,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>410</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11427,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>410</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11468,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>410</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11509,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>410</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11550,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>410</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11591,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>410</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11632,14 +10152,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>410</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11673,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>410</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11714,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>410</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11755,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>410</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11796,14 +10292,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>410</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11837,14 +10327,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>410</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11878,14 +10362,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>410</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11919,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>410</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11960,14 +10432,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>410</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12001,14 +10467,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>410</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -12042,14 +10502,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>410</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -12083,14 +10537,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>410</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12124,14 +10572,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>410</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12165,14 +10607,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>410</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12206,14 +10642,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>410</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12247,14 +10677,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>410</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12288,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>410</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12329,14 +10747,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>410</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12370,14 +10782,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>410</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12411,14 +10817,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>410</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12452,14 +10852,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>410</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12493,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>410</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12534,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>410</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12575,14 +10957,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>410</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12616,14 +10992,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>410</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12657,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>410</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12698,14 +11062,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>410</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12739,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>410</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12780,14 +11132,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>410</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12821,14 +11167,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>410</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12862,14 +11202,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>410</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12903,14 +11237,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>410</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12944,14 +11272,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>410</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12985,14 +11307,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>410</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13026,14 +11342,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>410</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13067,16 +11377,10 @@
         <v>1</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>410</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
-        <v>1.105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -13105,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
@@ -14540,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
@@ -14575,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
@@ -14610,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
@@ -22517,14 +20821,20 @@
         <v>434.4600000000004</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>424.7</v>
+      </c>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22552,14 +20862,20 @@
         <v>434.1233333333337</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>428.6</v>
+      </c>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22587,14 +20903,20 @@
         <v>433.6433333333337</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>423.3</v>
+      </c>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22622,14 +20944,20 @@
         <v>433.286666666667</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>421.1</v>
+      </c>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22657,14 +20985,20 @@
         <v>432.996666666667</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>422</v>
+      </c>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22692,14 +21026,20 @@
         <v>432.7066666666669</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>426</v>
+      </c>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22734,7 +21074,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22762,14 +21106,20 @@
         <v>432.0016666666669</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>421.1</v>
+      </c>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22797,14 +21147,20 @@
         <v>431.7033333333337</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>421.2</v>
+      </c>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22832,14 +21188,20 @@
         <v>431.4500000000003</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>424.9</v>
+      </c>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22874,7 +21236,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22909,7 +21275,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22944,7 +21314,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22979,7 +21353,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -23014,7 +21392,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -23049,7 +21431,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -23084,7 +21470,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23119,7 +21509,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23154,7 +21548,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23189,7 +21587,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23224,7 +21626,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23259,7 +21665,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23294,7 +21704,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23329,7 +21743,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23364,7 +21782,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23399,7 +21821,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23434,7 +21860,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23469,7 +21899,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23504,7 +21938,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23539,7 +21977,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23574,7 +22016,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23609,7 +22055,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23644,7 +22094,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23679,7 +22133,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23714,7 +22172,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23749,7 +22211,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23784,7 +22250,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +22289,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23854,7 +22328,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23889,7 +22367,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23924,7 +22406,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23959,7 +22445,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23994,7 +22484,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -24029,7 +22523,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -24064,7 +22562,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -24099,7 +22601,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -24134,7 +22640,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -24169,7 +22679,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -24204,7 +22718,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24239,7 +22757,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24274,7 +22796,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24309,7 +22835,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24344,7 +22874,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24379,7 +22913,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24414,7 +22952,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest BCD.xlsx
+++ b/BackTest/2020-01-12 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3784,10 +3784,14 @@
         <v>-342.7760540599974</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>410</v>
+      </c>
+      <c r="J103" t="n">
+        <v>410</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
@@ -3820,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>410</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>410</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3899,19 @@
         <v>1790.958645940003</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>410</v>
+      </c>
+      <c r="J106" t="n">
+        <v>410</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3940,19 @@
         <v>2078.903645940003</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>410</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3981,19 @@
         <v>2055.877345940003</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>416</v>
+      </c>
+      <c r="J108" t="n">
+        <v>410</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4022,19 @@
         <v>2154.736045940002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>410</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4063,19 @@
         <v>2154.736045940002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>409.9</v>
+      </c>
+      <c r="J110" t="n">
+        <v>410</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4104,19 @@
         <v>21.74694594000266</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>409.9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>410</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4145,19 @@
         <v>-58.25305405999734</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>410</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4186,19 @@
         <v>-56.25305405999734</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>408</v>
+      </c>
+      <c r="J113" t="n">
+        <v>410</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4227,19 @@
         <v>-54.25305405999734</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>411.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>410</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4268,19 @@
         <v>-55.61475405999734</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>417.2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>410</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4309,19 @@
         <v>-54.40375405999734</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>408</v>
+      </c>
+      <c r="J116" t="n">
+        <v>410</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4350,19 @@
         <v>-56.40375405999734</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>412</v>
+      </c>
+      <c r="J117" t="n">
+        <v>410</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4391,19 @@
         <v>736.5046459400027</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>410</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4432,19 @@
         <v>-3101.373354059997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>410</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,15 +4473,19 @@
         <v>-3101.373354059997</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>408.4</v>
       </c>
       <c r="J120" t="n">
-        <v>408.4</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>410</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,17 +4514,17 @@
         <v>-3152.309854059997</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>408.4</v>
       </c>
       <c r="J121" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4423,17 +4555,17 @@
         <v>-1951.005754059997</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>408.3</v>
       </c>
       <c r="J122" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4464,17 +4596,17 @@
         <v>-2951.005754059997</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>408.4</v>
       </c>
       <c r="J123" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4505,13 +4637,13 @@
         <v>-2951.005754059997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>408.3</v>
       </c>
       <c r="J124" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4546,13 +4678,13 @@
         <v>-2951.005754059997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>408.3</v>
       </c>
       <c r="J125" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4587,13 +4719,13 @@
         <v>-2951.005754059997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>408.3</v>
       </c>
       <c r="J126" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4628,13 +4760,13 @@
         <v>-2951.005754059997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>408.3</v>
       </c>
       <c r="J127" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4669,13 +4801,13 @@
         <v>-2951.005754059997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>408.3</v>
       </c>
       <c r="J128" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4710,13 +4842,13 @@
         <v>-1319.290336989997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>408.3</v>
       </c>
       <c r="J129" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4751,13 +4883,13 @@
         <v>-2682.447236989997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>417</v>
       </c>
       <c r="J130" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4792,11 +4924,13 @@
         <v>-2682.447236989997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>409.1</v>
+      </c>
       <c r="J131" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4831,13 +4965,13 @@
         <v>-2105.050136989997</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>409.1</v>
       </c>
       <c r="J132" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4872,13 +5006,13 @@
         <v>-2105.050136989997</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>409.2</v>
       </c>
       <c r="J133" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4913,13 +5047,13 @@
         <v>-715.150136989997</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>409.2</v>
       </c>
       <c r="J134" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4954,13 +5088,13 @@
         <v>-1357.150136989997</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>410.3</v>
       </c>
       <c r="J135" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4995,11 +5129,13 @@
         <v>-854.150136989997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>409.3</v>
+      </c>
       <c r="J136" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5034,11 +5170,13 @@
         <v>-854.150136989997</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>410.3</v>
+      </c>
       <c r="J137" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5073,11 +5211,13 @@
         <v>-1014.150136989997</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>410.3</v>
+      </c>
       <c r="J138" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5112,11 +5252,13 @@
         <v>-1012.150136989997</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>409.3</v>
+      </c>
       <c r="J139" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5151,11 +5293,13 @@
         <v>8827.849863010004</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>415</v>
+      </c>
       <c r="J140" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5190,11 +5334,13 @@
         <v>7984.349863010004</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>418</v>
+      </c>
       <c r="J141" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5229,11 +5375,13 @@
         <v>7985.549863010004</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>411</v>
+      </c>
       <c r="J142" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5272,7 +5420,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5311,7 +5459,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5350,7 +5498,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5389,7 +5537,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5428,7 +5576,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5467,7 +5615,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5506,7 +5654,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5545,7 +5693,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5584,7 +5732,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5623,7 +5771,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5662,7 +5810,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5701,7 +5849,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5740,7 +5888,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5779,7 +5927,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5818,7 +5966,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5857,7 +6005,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5896,7 +6044,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5935,7 +6083,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5974,7 +6122,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6013,7 +6161,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6052,7 +6200,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6091,7 +6239,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6130,7 +6278,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6169,7 +6317,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6208,7 +6356,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6247,7 +6395,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6286,7 +6434,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6325,7 +6473,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6364,7 +6512,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6403,7 +6551,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6442,7 +6590,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6481,7 +6629,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6520,7 +6668,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6559,7 +6707,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6598,7 +6746,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6637,7 +6785,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6676,7 +6824,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6715,7 +6863,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6754,7 +6902,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6793,7 +6941,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6832,7 +6980,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6871,7 +7019,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6910,7 +7058,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6949,7 +7097,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6988,7 +7136,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7027,7 +7175,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7066,7 +7214,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7105,7 +7253,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7144,7 +7292,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7183,7 +7331,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7222,7 +7370,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7261,7 +7409,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7300,7 +7448,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7339,7 +7487,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7378,7 +7526,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7417,7 +7565,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7456,7 +7604,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7495,7 +7643,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7534,7 +7682,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7573,7 +7721,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7612,7 +7760,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7651,7 +7799,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7690,7 +7838,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7729,7 +7877,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7768,7 +7916,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7803,1013 +7951,1193 @@
         <v>64545.3096916</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>408.4</v>
+        <v>410</v>
       </c>
       <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>449</v>
+      </c>
+      <c r="C209" t="n">
+        <v>441</v>
+      </c>
+      <c r="D209" t="n">
+        <v>449</v>
+      </c>
+      <c r="E209" t="n">
+        <v>441</v>
+      </c>
+      <c r="F209" t="n">
+        <v>451.5042</v>
+      </c>
+      <c r="G209" t="n">
+        <v>64093.8054916</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>410</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>444</v>
+      </c>
+      <c r="C210" t="n">
+        <v>444</v>
+      </c>
+      <c r="D210" t="n">
+        <v>444</v>
+      </c>
+      <c r="E210" t="n">
+        <v>444</v>
+      </c>
+      <c r="F210" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>64347.3054916</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>410</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>442</v>
+      </c>
+      <c r="C211" t="n">
+        <v>449</v>
+      </c>
+      <c r="D211" t="n">
+        <v>449</v>
+      </c>
+      <c r="E211" t="n">
+        <v>442</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3260.92636229</v>
+      </c>
+      <c r="G211" t="n">
+        <v>67608.23185389</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>410</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>442</v>
+      </c>
+      <c r="C212" t="n">
+        <v>449</v>
+      </c>
+      <c r="D212" t="n">
+        <v>449</v>
+      </c>
+      <c r="E212" t="n">
+        <v>440</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3081.19665968</v>
+      </c>
+      <c r="G212" t="n">
+        <v>67608.23185389</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>410</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>441</v>
+      </c>
+      <c r="C213" t="n">
+        <v>441</v>
+      </c>
+      <c r="D213" t="n">
+        <v>441</v>
+      </c>
+      <c r="E213" t="n">
+        <v>441</v>
+      </c>
+      <c r="F213" t="n">
+        <v>500</v>
+      </c>
+      <c r="G213" t="n">
+        <v>67108.23185389</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>410</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>443</v>
+      </c>
+      <c r="C214" t="n">
+        <v>441</v>
+      </c>
+      <c r="D214" t="n">
+        <v>443</v>
+      </c>
+      <c r="E214" t="n">
+        <v>441</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>67108.23185389</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>410</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>448</v>
+      </c>
+      <c r="C215" t="n">
+        <v>441</v>
+      </c>
+      <c r="D215" t="n">
+        <v>448</v>
+      </c>
+      <c r="E215" t="n">
+        <v>441</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1674.2404</v>
+      </c>
+      <c r="G215" t="n">
+        <v>67108.23185389</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>410</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>447</v>
+      </c>
+      <c r="C216" t="n">
+        <v>447</v>
+      </c>
+      <c r="D216" t="n">
+        <v>448</v>
+      </c>
+      <c r="E216" t="n">
+        <v>447</v>
+      </c>
+      <c r="F216" t="n">
+        <v>844.3</v>
+      </c>
+      <c r="G216" t="n">
+        <v>67952.53185389</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>410</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>447</v>
+      </c>
+      <c r="C217" t="n">
+        <v>450.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>450.1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>447</v>
+      </c>
+      <c r="F217" t="n">
+        <v>31384.96344063</v>
+      </c>
+      <c r="G217" t="n">
+        <v>99337.49529452001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>410</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>457</v>
+      </c>
+      <c r="D218" t="n">
+        <v>457</v>
+      </c>
+      <c r="E218" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25355.2223</v>
+      </c>
+      <c r="G218" t="n">
+        <v>124692.71759452</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>410</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>457</v>
+      </c>
+      <c r="C219" t="n">
+        <v>470</v>
+      </c>
+      <c r="D219" t="n">
+        <v>470.9</v>
+      </c>
+      <c r="E219" t="n">
+        <v>457</v>
+      </c>
+      <c r="F219" t="n">
+        <v>14955.8787</v>
+      </c>
+      <c r="G219" t="n">
+        <v>139648.59629452</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>410</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="C220" t="n">
+        <v>467.6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="E220" t="n">
+        <v>459.9</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5563.2469</v>
+      </c>
+      <c r="G220" t="n">
+        <v>134085.34939452</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>410</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>467.6</v>
+      </c>
+      <c r="C221" t="n">
+        <v>469</v>
+      </c>
+      <c r="D221" t="n">
+        <v>469</v>
+      </c>
+      <c r="E221" t="n">
+        <v>459.9</v>
+      </c>
+      <c r="F221" t="n">
+        <v>11770.9991</v>
+      </c>
+      <c r="G221" t="n">
+        <v>145856.34849452</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>410</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>467.6</v>
+      </c>
+      <c r="C222" t="n">
+        <v>471.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>471.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>461</v>
+      </c>
+      <c r="F222" t="n">
+        <v>26763.94692362</v>
+      </c>
+      <c r="G222" t="n">
+        <v>172620.29541814</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>410</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>470</v>
+      </c>
+      <c r="C223" t="n">
+        <v>462</v>
+      </c>
+      <c r="D223" t="n">
+        <v>472</v>
+      </c>
+      <c r="E223" t="n">
+        <v>461</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15540.109</v>
+      </c>
+      <c r="G223" t="n">
+        <v>157080.18641814</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>410</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>462</v>
+      </c>
+      <c r="C224" t="n">
+        <v>463</v>
+      </c>
+      <c r="D224" t="n">
+        <v>470.1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>461</v>
+      </c>
+      <c r="F224" t="n">
+        <v>13361.5504139</v>
+      </c>
+      <c r="G224" t="n">
+        <v>170441.73683204</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>410</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>463</v>
+      </c>
+      <c r="C225" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>463</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1110.3118</v>
+      </c>
+      <c r="G225" t="n">
+        <v>171552.04863204</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>410</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="C226" t="n">
+        <v>466</v>
+      </c>
+      <c r="D226" t="n">
+        <v>469</v>
+      </c>
+      <c r="E226" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>51.06074248</v>
+      </c>
+      <c r="G226" t="n">
+        <v>171603.10937452</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>410</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>920.3038</v>
+      </c>
+      <c r="G227" t="n">
+        <v>170682.80557452</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>410</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>463.4</v>
+      </c>
+      <c r="C228" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>466</v>
+      </c>
+      <c r="E228" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="F228" t="n">
+        <v>5772.9101</v>
+      </c>
+      <c r="G228" t="n">
+        <v>170682.80557452</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>410</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="C229" t="n">
+        <v>466.9</v>
+      </c>
+      <c r="D229" t="n">
+        <v>466.9</v>
+      </c>
+      <c r="E229" t="n">
+        <v>463.3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2022.6473</v>
+      </c>
+      <c r="G229" t="n">
+        <v>172705.45287452</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>410</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>466.9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>468.9</v>
+      </c>
+      <c r="E230" t="n">
+        <v>466.9</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1405.0053</v>
+      </c>
+      <c r="G230" t="n">
+        <v>174110.45817452</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>410</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="C231" t="n">
+        <v>468.4</v>
+      </c>
+      <c r="D231" t="n">
+        <v>468.4</v>
+      </c>
+      <c r="E231" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="F231" t="n">
+        <v>3260</v>
+      </c>
+      <c r="G231" t="n">
+        <v>177370.45817452</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>410</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>468.9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>470</v>
+      </c>
+      <c r="D232" t="n">
+        <v>470</v>
+      </c>
+      <c r="E232" t="n">
+        <v>468.9</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1901.896</v>
+      </c>
+      <c r="G232" t="n">
+        <v>179272.35417452</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>410</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>472</v>
+      </c>
+      <c r="C233" t="n">
+        <v>475</v>
+      </c>
+      <c r="D233" t="n">
+        <v>475</v>
+      </c>
+      <c r="E233" t="n">
+        <v>471</v>
+      </c>
+      <c r="F233" t="n">
+        <v>15374.7354</v>
+      </c>
+      <c r="G233" t="n">
+        <v>194647.08957452</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>410</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>476.9</v>
+      </c>
+      <c r="C234" t="n">
+        <v>476.7</v>
+      </c>
+      <c r="D234" t="n">
+        <v>476.9</v>
+      </c>
+      <c r="E234" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2097.3493</v>
+      </c>
+      <c r="G234" t="n">
+        <v>196744.43887452</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>410</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>476.7</v>
+      </c>
+      <c r="C235" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>478</v>
+      </c>
+      <c r="E235" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="F235" t="n">
+        <v>22650.2367</v>
+      </c>
+      <c r="G235" t="n">
+        <v>174094.20217452</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>410</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>477</v>
+      </c>
+      <c r="C236" t="n">
+        <v>477</v>
+      </c>
+      <c r="D236" t="n">
+        <v>477</v>
+      </c>
+      <c r="E236" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="F236" t="n">
+        <v>16187.0753</v>
+      </c>
+      <c r="G236" t="n">
+        <v>190281.27747452</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>410</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>476.5</v>
+      </c>
+      <c r="C237" t="n">
+        <v>477</v>
+      </c>
+      <c r="D237" t="n">
+        <v>477</v>
+      </c>
+      <c r="E237" t="n">
+        <v>473</v>
+      </c>
+      <c r="F237" t="n">
+        <v>15179.2078</v>
+      </c>
+      <c r="G237" t="n">
+        <v>190281.27747452</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>410</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>477</v>
+      </c>
+      <c r="C238" t="n">
+        <v>475</v>
+      </c>
+      <c r="D238" t="n">
+        <v>478</v>
+      </c>
+      <c r="E238" t="n">
+        <v>475</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4834.75056225</v>
+      </c>
+      <c r="G238" t="n">
+        <v>185446.52691227</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>410</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1.094412340842312</v>
-      </c>
-      <c r="M208" t="n">
-        <v>1.053921568627451</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>449</v>
-      </c>
-      <c r="C209" t="n">
-        <v>441</v>
-      </c>
-      <c r="D209" t="n">
-        <v>449</v>
-      </c>
-      <c r="E209" t="n">
-        <v>441</v>
-      </c>
-      <c r="F209" t="n">
-        <v>451.5042</v>
-      </c>
-      <c r="G209" t="n">
-        <v>64093.8054916</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>444</v>
-      </c>
-      <c r="C210" t="n">
-        <v>444</v>
-      </c>
-      <c r="D210" t="n">
-        <v>444</v>
-      </c>
-      <c r="E210" t="n">
-        <v>444</v>
-      </c>
-      <c r="F210" t="n">
-        <v>253.5</v>
-      </c>
-      <c r="G210" t="n">
-        <v>64347.3054916</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>442</v>
-      </c>
-      <c r="C211" t="n">
-        <v>449</v>
-      </c>
-      <c r="D211" t="n">
-        <v>449</v>
-      </c>
-      <c r="E211" t="n">
-        <v>442</v>
-      </c>
-      <c r="F211" t="n">
-        <v>3260.92636229</v>
-      </c>
-      <c r="G211" t="n">
-        <v>67608.23185389</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>442</v>
-      </c>
-      <c r="C212" t="n">
-        <v>449</v>
-      </c>
-      <c r="D212" t="n">
-        <v>449</v>
-      </c>
-      <c r="E212" t="n">
-        <v>440</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3081.19665968</v>
-      </c>
-      <c r="G212" t="n">
-        <v>67608.23185389</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>441</v>
-      </c>
-      <c r="C213" t="n">
-        <v>441</v>
-      </c>
-      <c r="D213" t="n">
-        <v>441</v>
-      </c>
-      <c r="E213" t="n">
-        <v>441</v>
-      </c>
-      <c r="F213" t="n">
-        <v>500</v>
-      </c>
-      <c r="G213" t="n">
-        <v>67108.23185389</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>443</v>
-      </c>
-      <c r="C214" t="n">
-        <v>441</v>
-      </c>
-      <c r="D214" t="n">
-        <v>443</v>
-      </c>
-      <c r="E214" t="n">
-        <v>441</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G214" t="n">
-        <v>67108.23185389</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>448</v>
-      </c>
-      <c r="C215" t="n">
-        <v>441</v>
-      </c>
-      <c r="D215" t="n">
-        <v>448</v>
-      </c>
-      <c r="E215" t="n">
-        <v>441</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1674.2404</v>
-      </c>
-      <c r="G215" t="n">
-        <v>67108.23185389</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>447</v>
-      </c>
-      <c r="C216" t="n">
-        <v>447</v>
-      </c>
-      <c r="D216" t="n">
-        <v>448</v>
-      </c>
-      <c r="E216" t="n">
-        <v>447</v>
-      </c>
-      <c r="F216" t="n">
-        <v>844.3</v>
-      </c>
-      <c r="G216" t="n">
-        <v>67952.53185389</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>447</v>
-      </c>
-      <c r="C217" t="n">
-        <v>450.1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>450.1</v>
-      </c>
-      <c r="E217" t="n">
-        <v>447</v>
-      </c>
-      <c r="F217" t="n">
-        <v>31384.96344063</v>
-      </c>
-      <c r="G217" t="n">
-        <v>99337.49529452001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>450.5</v>
-      </c>
-      <c r="C218" t="n">
-        <v>457</v>
-      </c>
-      <c r="D218" t="n">
-        <v>457</v>
-      </c>
-      <c r="E218" t="n">
-        <v>450.5</v>
-      </c>
-      <c r="F218" t="n">
-        <v>25355.2223</v>
-      </c>
-      <c r="G218" t="n">
-        <v>124692.71759452</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>457</v>
-      </c>
-      <c r="C219" t="n">
-        <v>470</v>
-      </c>
-      <c r="D219" t="n">
-        <v>470.9</v>
-      </c>
-      <c r="E219" t="n">
-        <v>457</v>
-      </c>
-      <c r="F219" t="n">
-        <v>14955.8787</v>
-      </c>
-      <c r="G219" t="n">
-        <v>139648.59629452</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="C220" t="n">
-        <v>467.6</v>
-      </c>
-      <c r="D220" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="E220" t="n">
-        <v>459.9</v>
-      </c>
-      <c r="F220" t="n">
-        <v>5563.2469</v>
-      </c>
-      <c r="G220" t="n">
-        <v>134085.34939452</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>467.6</v>
-      </c>
-      <c r="C221" t="n">
-        <v>469</v>
-      </c>
-      <c r="D221" t="n">
-        <v>469</v>
-      </c>
-      <c r="E221" t="n">
-        <v>459.9</v>
-      </c>
-      <c r="F221" t="n">
-        <v>11770.9991</v>
-      </c>
-      <c r="G221" t="n">
-        <v>145856.34849452</v>
-      </c>
-      <c r="H221" t="n">
-        <v>3</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>467.6</v>
-      </c>
-      <c r="C222" t="n">
-        <v>471.2</v>
-      </c>
-      <c r="D222" t="n">
-        <v>471.2</v>
-      </c>
-      <c r="E222" t="n">
-        <v>461</v>
-      </c>
-      <c r="F222" t="n">
-        <v>26763.94692362</v>
-      </c>
-      <c r="G222" t="n">
-        <v>172620.29541814</v>
-      </c>
-      <c r="H222" t="n">
-        <v>3</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>470</v>
-      </c>
-      <c r="C223" t="n">
-        <v>462</v>
-      </c>
-      <c r="D223" t="n">
-        <v>472</v>
-      </c>
-      <c r="E223" t="n">
-        <v>461</v>
-      </c>
-      <c r="F223" t="n">
-        <v>15540.109</v>
-      </c>
-      <c r="G223" t="n">
-        <v>157080.18641814</v>
-      </c>
-      <c r="H223" t="n">
-        <v>3</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>462</v>
-      </c>
-      <c r="C224" t="n">
-        <v>463</v>
-      </c>
-      <c r="D224" t="n">
-        <v>470.1</v>
-      </c>
-      <c r="E224" t="n">
-        <v>461</v>
-      </c>
-      <c r="F224" t="n">
-        <v>13361.5504139</v>
-      </c>
-      <c r="G224" t="n">
-        <v>170441.73683204</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>463</v>
-      </c>
-      <c r="C225" t="n">
-        <v>463.2</v>
-      </c>
-      <c r="D225" t="n">
-        <v>463.2</v>
-      </c>
-      <c r="E225" t="n">
-        <v>463</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1110.3118</v>
-      </c>
-      <c r="G225" t="n">
-        <v>171552.04863204</v>
-      </c>
-      <c r="H225" t="n">
-        <v>3</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>463.2</v>
-      </c>
-      <c r="C226" t="n">
-        <v>466</v>
-      </c>
-      <c r="D226" t="n">
-        <v>469</v>
-      </c>
-      <c r="E226" t="n">
-        <v>463.2</v>
-      </c>
-      <c r="F226" t="n">
-        <v>51.06074248</v>
-      </c>
-      <c r="G226" t="n">
-        <v>171603.10937452</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="C227" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="D227" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="E227" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="F227" t="n">
-        <v>920.3038</v>
-      </c>
-      <c r="G227" t="n">
-        <v>170682.80557452</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>463.4</v>
-      </c>
-      <c r="C228" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="D228" t="n">
-        <v>466</v>
-      </c>
-      <c r="E228" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="F228" t="n">
-        <v>5772.9101</v>
-      </c>
-      <c r="G228" t="n">
-        <v>170682.80557452</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="C229" t="n">
-        <v>466.9</v>
-      </c>
-      <c r="D229" t="n">
-        <v>466.9</v>
-      </c>
-      <c r="E229" t="n">
-        <v>463.3</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2022.6473</v>
-      </c>
-      <c r="G229" t="n">
-        <v>172705.45287452</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>466.9</v>
-      </c>
-      <c r="C230" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="D230" t="n">
-        <v>468.9</v>
-      </c>
-      <c r="E230" t="n">
-        <v>466.9</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1405.0053</v>
-      </c>
-      <c r="G230" t="n">
-        <v>174110.45817452</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="C231" t="n">
-        <v>468.4</v>
-      </c>
-      <c r="D231" t="n">
-        <v>468.4</v>
-      </c>
-      <c r="E231" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3260</v>
-      </c>
-      <c r="G231" t="n">
-        <v>177370.45817452</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>468.9</v>
-      </c>
-      <c r="C232" t="n">
-        <v>470</v>
-      </c>
-      <c r="D232" t="n">
-        <v>470</v>
-      </c>
-      <c r="E232" t="n">
-        <v>468.9</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1901.896</v>
-      </c>
-      <c r="G232" t="n">
-        <v>179272.35417452</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>472</v>
-      </c>
-      <c r="C233" t="n">
-        <v>475</v>
-      </c>
-      <c r="D233" t="n">
-        <v>475</v>
-      </c>
-      <c r="E233" t="n">
-        <v>471</v>
-      </c>
-      <c r="F233" t="n">
-        <v>15374.7354</v>
-      </c>
-      <c r="G233" t="n">
-        <v>194647.08957452</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>476.9</v>
-      </c>
-      <c r="C234" t="n">
-        <v>476.7</v>
-      </c>
-      <c r="D234" t="n">
-        <v>476.9</v>
-      </c>
-      <c r="E234" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2097.3493</v>
-      </c>
-      <c r="G234" t="n">
-        <v>196744.43887452</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>476.7</v>
-      </c>
-      <c r="C235" t="n">
-        <v>472.5</v>
-      </c>
-      <c r="D235" t="n">
-        <v>478</v>
-      </c>
-      <c r="E235" t="n">
-        <v>472.5</v>
-      </c>
-      <c r="F235" t="n">
-        <v>22650.2367</v>
-      </c>
-      <c r="G235" t="n">
-        <v>174094.20217452</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>477</v>
-      </c>
-      <c r="C236" t="n">
-        <v>477</v>
-      </c>
-      <c r="D236" t="n">
-        <v>477</v>
-      </c>
-      <c r="E236" t="n">
-        <v>475.5</v>
-      </c>
-      <c r="F236" t="n">
-        <v>16187.0753</v>
-      </c>
-      <c r="G236" t="n">
-        <v>190281.27747452</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>476.5</v>
-      </c>
-      <c r="C237" t="n">
-        <v>477</v>
-      </c>
-      <c r="D237" t="n">
-        <v>477</v>
-      </c>
-      <c r="E237" t="n">
-        <v>473</v>
-      </c>
-      <c r="F237" t="n">
-        <v>15179.2078</v>
-      </c>
-      <c r="G237" t="n">
-        <v>190281.27747452</v>
-      </c>
-      <c r="H237" t="n">
-        <v>3</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>477</v>
-      </c>
-      <c r="C238" t="n">
-        <v>475</v>
-      </c>
-      <c r="D238" t="n">
-        <v>478</v>
-      </c>
-      <c r="E238" t="n">
-        <v>475</v>
-      </c>
-      <c r="F238" t="n">
-        <v>4834.75056225</v>
-      </c>
-      <c r="G238" t="n">
-        <v>185446.52691227</v>
-      </c>
-      <c r="H238" t="n">
-        <v>3</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>1.153536585365854</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1.048780487804878</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8834,7 +9162,7 @@
         <v>177185.01341227</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8867,7 +9195,7 @@
         <v>177209.01341227</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8900,7 +9228,7 @@
         <v>173987.53571227</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8933,7 +9261,7 @@
         <v>172766.31391227</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8966,7 +9294,7 @@
         <v>173409.62371227</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8999,7 +9327,7 @@
         <v>172409.62371227</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9032,7 +9360,7 @@
         <v>172483.61581227</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9065,7 +9393,7 @@
         <v>164819.66981227</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9098,7 +9426,7 @@
         <v>150022.02671227</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9131,7 +9459,7 @@
         <v>150022.02671227</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9164,7 +9492,7 @@
         <v>151021.46161227</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9197,7 +9525,7 @@
         <v>150892.26161227</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9230,7 +9558,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9263,7 +9591,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9296,7 +9624,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9329,7 +9657,7 @@
         <v>132334.55941227</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9362,7 +9690,7 @@
         <v>132073.24181227</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9395,7 +9723,7 @@
         <v>135312.24591227</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9428,7 +9756,7 @@
         <v>135142.63891227</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9461,7 +9789,7 @@
         <v>137888.85761227</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9494,7 +9822,7 @@
         <v>137888.85761227</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9527,7 +9855,7 @@
         <v>144465.66981227</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9560,7 +9888,7 @@
         <v>142347.50751227</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9593,7 +9921,7 @@
         <v>137592.52481227</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9626,7 +9954,7 @@
         <v>132873.9901122701</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9659,7 +9987,7 @@
         <v>151528.9608122701</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9692,7 +10020,7 @@
         <v>151531.3608122701</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9725,7 +10053,7 @@
         <v>151531.3608122701</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9758,7 +10086,7 @@
         <v>151117.3144122701</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9791,7 +10119,7 @@
         <v>151118.5144122701</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9824,7 +10152,7 @@
         <v>148480.5569693901</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9857,7 +10185,7 @@
         <v>148512.7378693901</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9890,7 +10218,7 @@
         <v>132587.2037693901</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9923,7 +10251,7 @@
         <v>134949.1644693901</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9956,7 +10284,7 @@
         <v>137104.3447693901</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9989,7 +10317,7 @@
         <v>136622.7797693901</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10022,7 +10350,7 @@
         <v>136655.5797693901</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10055,7 +10383,7 @@
         <v>136974.7346693901</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10088,7 +10416,7 @@
         <v>137026.7326693901</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10121,7 +10449,7 @@
         <v>141156.0645693901</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10220,7 +10548,7 @@
         <v>126949.6305693901</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10253,7 +10581,7 @@
         <v>129063.90256939</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10286,7 +10614,7 @@
         <v>129063.90256939</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -12926,7 +13254,7 @@
         <v>91948.62970436009</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13025,7 +13353,7 @@
         <v>91485.5429075201</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13058,7 +13386,7 @@
         <v>89540.1138075201</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13091,7 +13419,7 @@
         <v>86901.35859271011</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13157,7 +13485,7 @@
         <v>126444.6596017201</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13190,7 +13518,7 @@
         <v>115721.1941128901</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13223,7 +13551,7 @@
         <v>117635.0994117701</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13256,7 +13584,7 @@
         <v>116435.9957117701</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13289,7 +13617,7 @@
         <v>117969.3552117701</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13322,7 +13650,7 @@
         <v>117969.3552117701</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13355,7 +13683,7 @@
         <v>113464.8942117701</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13388,7 +13716,7 @@
         <v>123521.9231117701</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13586,7 +13914,7 @@
         <v>123212.5318117701</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14708,7 +15036,7 @@
         <v>189597.14627729</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14741,7 +15069,7 @@
         <v>189624.14627729</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14774,7 +15102,7 @@
         <v>184906.70987729</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14807,7 +15135,7 @@
         <v>185285.21867729</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14840,7 +15168,7 @@
         <v>177473.8876264</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14873,7 +15201,7 @@
         <v>177475.0876264001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14906,7 +15234,7 @@
         <v>174560.8876264</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15071,7 +15399,7 @@
         <v>173361.9172264001</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15137,7 +15465,7 @@
         <v>162505.6179264</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15170,7 +15498,7 @@
         <v>107634.2680264</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15203,7 +15531,7 @@
         <v>108027.9498264</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15269,7 +15597,7 @@
         <v>85096.76822640005</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15302,7 +15630,7 @@
         <v>77695.70792640005</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15335,7 +15663,7 @@
         <v>77644.20792640005</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15368,7 +15696,7 @@
         <v>73435.22672640005</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15467,7 +15795,7 @@
         <v>50653.90222640005</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15599,7 +15927,7 @@
         <v>48602.40442640005</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -24289,6 +24617,6 @@
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BCD.xlsx
+++ b/BackTest/2020-01-12 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,11 +1606,17 @@
         <v>6720.820745430001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>413</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1649,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1682,17 @@
         <v>6477.373345430001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>411.3</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1725,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1762,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1799,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1836,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1873,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1910,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1947,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1984,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2021,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2058,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2095,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2132,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2169,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2206,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2243,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2280,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2317,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2354,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2391,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2428,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2465,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2502,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2539,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2576,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2613,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2650,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2687,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2724,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2761,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2798,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2835,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2872,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2909,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2946,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2983,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3020,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3057,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3094,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3131,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3168,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3205,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3242,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3279,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3316,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3353,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3390,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3427,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3464,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3501,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3538,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3575,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3612,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3649,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3686,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3723,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3760,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3797,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3834,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3871,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3908,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3945,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3982,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4019,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3789,10 +4057,12 @@
       <c r="I103" t="n">
         <v>410</v>
       </c>
-      <c r="J103" t="n">
-        <v>410</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,15 +4091,15 @@
         <v>-344.8960540599974</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
         <v>410</v>
       </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3860,12 +4130,12 @@
         <v>2022.958545940003</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>410</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +4174,7 @@
       <c r="I106" t="n">
         <v>410</v>
       </c>
-      <c r="J106" t="n">
-        <v>410</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,9 +4213,7 @@
       <c r="I107" t="n">
         <v>409.8</v>
       </c>
-      <c r="J107" t="n">
-        <v>410</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,9 +4252,7 @@
       <c r="I108" t="n">
         <v>416</v>
       </c>
-      <c r="J108" t="n">
-        <v>410</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,9 +4291,7 @@
       <c r="I109" t="n">
         <v>409.8</v>
       </c>
-      <c r="J109" t="n">
-        <v>410</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,9 +4330,7 @@
       <c r="I110" t="n">
         <v>409.9</v>
       </c>
-      <c r="J110" t="n">
-        <v>410</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,9 +4369,7 @@
       <c r="I111" t="n">
         <v>409.9</v>
       </c>
-      <c r="J111" t="n">
-        <v>410</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,9 +4408,7 @@
       <c r="I112" t="n">
         <v>409.8</v>
       </c>
-      <c r="J112" t="n">
-        <v>410</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,9 +4447,7 @@
       <c r="I113" t="n">
         <v>408</v>
       </c>
-      <c r="J113" t="n">
-        <v>410</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,9 +4486,7 @@
       <c r="I114" t="n">
         <v>411.4</v>
       </c>
-      <c r="J114" t="n">
-        <v>410</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,14 +4520,10 @@
         <v>-55.61475405999734</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>417.2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,9 +4562,7 @@
       <c r="I116" t="n">
         <v>408</v>
       </c>
-      <c r="J116" t="n">
-        <v>410</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,9 +4601,7 @@
       <c r="I117" t="n">
         <v>412</v>
       </c>
-      <c r="J117" t="n">
-        <v>410</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,9 +4640,7 @@
       <c r="I118" t="n">
         <v>408.1</v>
       </c>
-      <c r="J118" t="n">
-        <v>410</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,9 +4679,7 @@
       <c r="I119" t="n">
         <v>408.5</v>
       </c>
-      <c r="J119" t="n">
-        <v>410</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,9 +4718,7 @@
       <c r="I120" t="n">
         <v>408.4</v>
       </c>
-      <c r="J120" t="n">
-        <v>410</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4519,9 +4757,7 @@
       <c r="I121" t="n">
         <v>408.4</v>
       </c>
-      <c r="J121" t="n">
-        <v>410</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,9 +4796,7 @@
       <c r="I122" t="n">
         <v>408.3</v>
       </c>
-      <c r="J122" t="n">
-        <v>410</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,9 +4835,7 @@
       <c r="I123" t="n">
         <v>408.4</v>
       </c>
-      <c r="J123" t="n">
-        <v>410</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,9 +4874,7 @@
       <c r="I124" t="n">
         <v>408.3</v>
       </c>
-      <c r="J124" t="n">
-        <v>410</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,9 +4913,7 @@
       <c r="I125" t="n">
         <v>408.3</v>
       </c>
-      <c r="J125" t="n">
-        <v>410</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,9 +4952,7 @@
       <c r="I126" t="n">
         <v>408.3</v>
       </c>
-      <c r="J126" t="n">
-        <v>410</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,9 +4991,7 @@
       <c r="I127" t="n">
         <v>408.3</v>
       </c>
-      <c r="J127" t="n">
-        <v>410</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,9 +5030,7 @@
       <c r="I128" t="n">
         <v>408.3</v>
       </c>
-      <c r="J128" t="n">
-        <v>410</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,9 +5069,7 @@
       <c r="I129" t="n">
         <v>408.3</v>
       </c>
-      <c r="J129" t="n">
-        <v>410</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,9 +5108,7 @@
       <c r="I130" t="n">
         <v>417</v>
       </c>
-      <c r="J130" t="n">
-        <v>410</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4929,9 +5147,7 @@
       <c r="I131" t="n">
         <v>409.1</v>
       </c>
-      <c r="J131" t="n">
-        <v>410</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,9 +5186,7 @@
       <c r="I132" t="n">
         <v>409.1</v>
       </c>
-      <c r="J132" t="n">
-        <v>410</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,9 +5225,7 @@
       <c r="I133" t="n">
         <v>409.2</v>
       </c>
-      <c r="J133" t="n">
-        <v>410</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5052,9 +5264,7 @@
       <c r="I134" t="n">
         <v>409.2</v>
       </c>
-      <c r="J134" t="n">
-        <v>410</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5093,9 +5303,7 @@
       <c r="I135" t="n">
         <v>410.3</v>
       </c>
-      <c r="J135" t="n">
-        <v>410</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5134,9 +5342,7 @@
       <c r="I136" t="n">
         <v>409.3</v>
       </c>
-      <c r="J136" t="n">
-        <v>410</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,9 +5381,7 @@
       <c r="I137" t="n">
         <v>410.3</v>
       </c>
-      <c r="J137" t="n">
-        <v>410</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,9 +5420,7 @@
       <c r="I138" t="n">
         <v>410.3</v>
       </c>
-      <c r="J138" t="n">
-        <v>410</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5257,9 +5459,7 @@
       <c r="I139" t="n">
         <v>409.3</v>
       </c>
-      <c r="J139" t="n">
-        <v>410</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,9 +5498,7 @@
       <c r="I140" t="n">
         <v>415</v>
       </c>
-      <c r="J140" t="n">
-        <v>410</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,14 +5532,10 @@
         <v>7984.349863010004</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>418</v>
-      </c>
-      <c r="J141" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,14 +5569,10 @@
         <v>7985.549863010004</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>411</v>
-      </c>
-      <c r="J142" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5419,9 +5609,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>410</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5458,9 +5646,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>410</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5497,9 +5683,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>410</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5536,9 +5720,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>410</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5575,9 +5757,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>410</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,9 +5794,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>410</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5653,9 +5831,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>410</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5692,9 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>410</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5731,9 +5905,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>410</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,20 +5939,16 @@
         <v>25891.01435705</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>410</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5809,14 +5977,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>410</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>410</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5887,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>410</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>410</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5965,14 +6109,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>410</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6004,14 +6142,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>410</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6043,14 +6175,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>410</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6082,14 +6208,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>410</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6121,14 +6241,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>410</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6160,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>410</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6199,14 +6307,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>410</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6238,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>410</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6277,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>410</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6316,14 +6406,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>410</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6355,14 +6439,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>410</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6394,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>410</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6433,14 +6505,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>410</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6472,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>410</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6511,14 +6571,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>410</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6550,14 +6604,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>410</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>410</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>410</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>410</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6703,17 +6733,11 @@
         <v>14692.39193593</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>410</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6745,14 +6769,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>410</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6802,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>410</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +6835,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>410</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6862,14 +6868,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>410</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6901,14 +6901,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>410</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6940,14 +6934,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>410</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>410</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7015,17 +6997,11 @@
         <v>12581.13473593</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>410</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +7033,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>410</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +7066,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>410</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +7099,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>410</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7171,17 +7129,11 @@
         <v>11563.92963593</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>410</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +7165,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>410</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +7198,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>410</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7288,17 +7228,11 @@
         <v>10937.58133593</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>410</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7327,17 +7261,11 @@
         <v>10937.58133593</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>410</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +7297,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>410</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +7330,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>410</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7447,14 +7363,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>410</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7396,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>410</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7525,14 +7429,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>410</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7462,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>410</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7495,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>410</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +7528,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>410</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7561,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>410</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7594,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>410</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7759,14 +7627,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>410</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7798,14 +7660,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>410</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +7693,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>410</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7876,14 +7726,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>410</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7912,17 +7756,11 @@
         <v>64554.8196916</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>410</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7951,17 +7789,11 @@
         <v>64545.3096916</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>410</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7825,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>410</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8029,17 +7855,11 @@
         <v>64347.3054916</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>410</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8068,17 +7888,11 @@
         <v>67608.23185389</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>410</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +7921,11 @@
         <v>67608.23185389</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>410</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +7954,11 @@
         <v>67108.23185389</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>410</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8185,17 +7987,11 @@
         <v>67108.23185389</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>410</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8224,17 +8020,11 @@
         <v>67108.23185389</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>410</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8263,17 +8053,11 @@
         <v>67952.53185389</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>410</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8302,17 +8086,11 @@
         <v>99337.49529452001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>410</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8341,17 +8119,11 @@
         <v>124692.71759452</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>410</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8380,17 +8152,11 @@
         <v>139648.59629452</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>410</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8188,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>410</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +8221,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>410</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +8254,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>410</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8287,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>410</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8320,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>410</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8353,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>410</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +8386,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>410</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8419,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>410</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8452,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>410</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +8485,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>410</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8812,14 +8518,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>410</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8551,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>410</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8584,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>410</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8929,14 +8617,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>410</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8650,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>410</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +8683,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>410</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9046,14 +8716,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>410</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8749,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>410</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9121,23 +8779,15 @@
         <v>185446.52691227</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>410</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>1.153536585365854</v>
-      </c>
-      <c r="M238" t="n">
-        <v>1.048780487804878</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9162,7 +8812,7 @@
         <v>177185.01341227</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9195,7 +8845,7 @@
         <v>177209.01341227</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9228,7 +8878,7 @@
         <v>173987.53571227</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9261,7 +8911,7 @@
         <v>172766.31391227</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9294,7 +8944,7 @@
         <v>173409.62371227</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9327,7 +8977,7 @@
         <v>172409.62371227</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9360,7 +9010,7 @@
         <v>172483.61581227</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9393,7 +9043,7 @@
         <v>164819.66981227</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9426,7 +9076,7 @@
         <v>150022.02671227</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9459,7 +9109,7 @@
         <v>150022.02671227</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9492,7 +9142,7 @@
         <v>151021.46161227</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9525,7 +9175,7 @@
         <v>150892.26161227</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9558,7 +9208,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9591,7 +9241,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9624,7 +9274,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9657,7 +9307,7 @@
         <v>132334.55941227</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9690,7 +9340,7 @@
         <v>132073.24181227</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9723,7 +9373,7 @@
         <v>135312.24591227</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9756,7 +9406,7 @@
         <v>135142.63891227</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9789,7 +9439,7 @@
         <v>137888.85761227</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9822,7 +9472,7 @@
         <v>137888.85761227</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9855,7 +9505,7 @@
         <v>144465.66981227</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9888,7 +9538,7 @@
         <v>142347.50751227</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9921,7 +9571,7 @@
         <v>137592.52481227</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9954,7 +9604,7 @@
         <v>132873.9901122701</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9987,7 +9637,7 @@
         <v>151528.9608122701</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10020,7 +9670,7 @@
         <v>151531.3608122701</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10053,7 +9703,7 @@
         <v>151531.3608122701</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10086,7 +9736,7 @@
         <v>151117.3144122701</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10119,7 +9769,7 @@
         <v>151118.5144122701</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10152,7 +9802,7 @@
         <v>148480.5569693901</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10185,7 +9835,7 @@
         <v>148512.7378693901</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10218,7 +9868,7 @@
         <v>132587.2037693901</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10251,7 +9901,7 @@
         <v>134949.1644693901</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10284,7 +9934,7 @@
         <v>137104.3447693901</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10317,7 +9967,7 @@
         <v>136622.7797693901</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10350,7 +10000,7 @@
         <v>136655.5797693901</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10383,7 +10033,7 @@
         <v>136974.7346693901</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10416,7 +10066,7 @@
         <v>137026.7326693901</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10449,7 +10099,7 @@
         <v>141156.0645693901</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10548,7 +10198,7 @@
         <v>126949.6305693901</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10581,7 +10231,7 @@
         <v>129063.90256939</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10614,7 +10264,7 @@
         <v>129063.90256939</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -13518,7 +13168,7 @@
         <v>115721.1941128901</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13551,7 +13201,7 @@
         <v>117635.0994117701</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13584,7 +13234,7 @@
         <v>116435.9957117701</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13716,7 +13366,7 @@
         <v>123521.9231117701</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13914,7 +13564,7 @@
         <v>123212.5318117701</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13947,7 +13597,7 @@
         <v>125986.3515117701</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14277,7 +13927,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14310,7 +13960,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14343,7 +13993,7 @@
         <v>146171.3393689201</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14376,7 +14026,7 @@
         <v>139834.8534689201</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14409,7 +14059,7 @@
         <v>144574.7943689201</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14442,7 +14092,7 @@
         <v>144328.1883689201</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14475,7 +14125,7 @@
         <v>131984.6051689201</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14508,7 +14158,7 @@
         <v>128121.5294689201</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14541,7 +14191,7 @@
         <v>130511.5294689201</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14574,7 +14224,7 @@
         <v>135986.6805689201</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14607,7 +14257,7 @@
         <v>136215.3628689201</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15036,7 +14686,7 @@
         <v>189597.14627729</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15069,7 +14719,7 @@
         <v>189624.14627729</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15102,7 +14752,7 @@
         <v>184906.70987729</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15135,7 +14785,7 @@
         <v>185285.21867729</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15168,7 +14818,7 @@
         <v>177473.8876264</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15201,7 +14851,7 @@
         <v>177475.0876264001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15234,7 +14884,7 @@
         <v>174560.8876264</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15399,7 +15049,7 @@
         <v>173361.9172264001</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15465,7 +15115,7 @@
         <v>162505.6179264</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15498,7 +15148,7 @@
         <v>107634.2680264</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15531,7 +15181,7 @@
         <v>108027.9498264</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15597,7 +15247,7 @@
         <v>85096.76822640005</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15630,7 +15280,7 @@
         <v>77695.70792640005</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15663,7 +15313,7 @@
         <v>77644.20792640005</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15696,7 +15346,7 @@
         <v>73435.22672640005</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15729,7 +15379,7 @@
         <v>66974.64832640006</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15795,7 +15445,7 @@
         <v>50653.90222640005</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15861,7 +15511,7 @@
         <v>49601.10442640005</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15894,7 +15544,7 @@
         <v>48601.10442640005</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15960,7 +15610,7 @@
         <v>43983.55542640005</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15993,7 +15643,7 @@
         <v>49650.92982640005</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16257,7 +15907,7 @@
         <v>38498.91282640005</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16290,7 +15940,7 @@
         <v>40578.91282640005</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16323,7 +15973,7 @@
         <v>40503.51282640005</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16356,7 +16006,7 @@
         <v>40507.34282640005</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16389,7 +16039,7 @@
         <v>39033.90272640005</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16422,7 +16072,7 @@
         <v>39035.30272640006</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -24617,6 +24267,6 @@
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BCD.xlsx
+++ b/BackTest/2020-01-12 BackTest BCD.xlsx
@@ -1606,17 +1606,11 @@
         <v>6720.820745430001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1649,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1682,17 +1672,11 @@
         <v>6477.373345430001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>411.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1725,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1762,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1799,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1836,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1873,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1947,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1984,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2021,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2058,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2095,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2132,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2169,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2206,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2243,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2280,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2317,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2391,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2428,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2465,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2539,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2613,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2650,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2687,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2724,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2798,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2835,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2872,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2983,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3020,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3057,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3168,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3205,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3242,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3279,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3316,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3390,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3427,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3464,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3501,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3612,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3649,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3686,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3723,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4052,17 +3784,11 @@
         <v>-342.7760540599974</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4091,17 +3817,11 @@
         <v>-344.8960540599974</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4130,17 +3850,11 @@
         <v>2022.958545940003</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>408.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4177,7 +3891,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -4520,9 +4234,11 @@
         <v>-55.61475405999734</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>417.2</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -5493,11 +5209,9 @@
         <v>8827.849863010004</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5939,16 +5653,18 @@
         <v>25891.01435705</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5978,7 +5694,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6011,7 +5731,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6044,7 +5768,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6077,7 +5805,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6110,7 +5842,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6143,7 +5879,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6176,7 +5916,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6209,7 +5953,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6242,7 +5990,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6275,7 +6027,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6308,7 +6064,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6341,7 +6101,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6374,7 +6138,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6407,7 +6175,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6440,7 +6212,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6473,7 +6249,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6506,7 +6286,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6539,7 +6323,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6572,7 +6360,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6605,7 +6397,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6638,7 +6434,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6671,7 +6471,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6704,7 +6508,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6733,11 +6541,15 @@
         <v>14692.39193593</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6770,7 +6582,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6803,7 +6619,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6836,7 +6656,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6869,7 +6693,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6902,7 +6730,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6935,7 +6767,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +6804,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6997,11 +6837,15 @@
         <v>12581.13473593</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7034,7 +6878,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7067,7 +6915,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7100,7 +6952,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +6985,15 @@
         <v>11563.92963593</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7166,7 +7026,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7199,7 +7063,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7228,11 +7096,15 @@
         <v>10937.58133593</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +7133,15 @@
         <v>10937.58133593</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7298,7 +7174,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7331,7 +7211,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7364,7 +7248,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7397,7 +7285,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7430,7 +7322,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7463,7 +7359,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7496,7 +7396,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7529,7 +7433,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7562,7 +7470,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7595,7 +7507,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7628,7 +7544,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7661,7 +7581,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7694,7 +7618,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7727,7 +7655,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7756,11 +7688,15 @@
         <v>64554.8196916</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7789,11 +7725,15 @@
         <v>64545.3096916</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7826,7 +7766,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7855,11 +7799,15 @@
         <v>64347.3054916</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +7836,15 @@
         <v>67608.23185389</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7921,11 +7873,15 @@
         <v>67608.23185389</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7954,11 +7910,15 @@
         <v>67108.23185389</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7987,11 +7947,15 @@
         <v>67108.23185389</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +7984,15 @@
         <v>67108.23185389</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +8021,15 @@
         <v>67952.53185389</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +8058,15 @@
         <v>99337.49529452001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8119,11 +8095,15 @@
         <v>124692.71759452</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +8132,15 @@
         <v>139648.59629452</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8189,7 +8173,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8222,7 +8210,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8255,7 +8247,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8288,7 +8284,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8321,7 +8321,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8354,7 +8358,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8387,7 +8395,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8420,7 +8432,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8453,7 +8469,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8486,7 +8506,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8519,7 +8543,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8548,14 +8576,16 @@
         <v>177370.45817452</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
@@ -8581,7 +8611,7 @@
         <v>179272.35417452</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8614,7 +8644,7 @@
         <v>194647.08957452</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8647,7 +8677,7 @@
         <v>196744.43887452</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8680,7 +8710,7 @@
         <v>174094.20217452</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8713,7 +8743,7 @@
         <v>190281.27747452</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8746,7 +8776,7 @@
         <v>190281.27747452</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8779,7 +8809,7 @@
         <v>185446.52691227</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8812,7 +8842,7 @@
         <v>177185.01341227</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8845,7 +8875,7 @@
         <v>177209.01341227</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8878,7 +8908,7 @@
         <v>173987.53571227</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8911,7 +8941,7 @@
         <v>172766.31391227</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8944,7 +8974,7 @@
         <v>173409.62371227</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8977,7 +9007,7 @@
         <v>172409.62371227</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -13168,7 +13198,7 @@
         <v>115721.1941128901</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13201,7 +13231,7 @@
         <v>117635.0994117701</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13234,7 +13264,7 @@
         <v>116435.9957117701</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13366,7 +13396,7 @@
         <v>123521.9231117701</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13564,7 +13594,7 @@
         <v>123212.5318117701</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13597,7 +13627,7 @@
         <v>125986.3515117701</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13927,7 +13957,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13960,7 +13990,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13993,7 +14023,7 @@
         <v>146171.3393689201</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14026,7 +14056,7 @@
         <v>139834.8534689201</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14059,7 +14089,7 @@
         <v>144574.7943689201</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14092,7 +14122,7 @@
         <v>144328.1883689201</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14125,7 +14155,7 @@
         <v>131984.6051689201</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14158,7 +14188,7 @@
         <v>128121.5294689201</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14191,7 +14221,7 @@
         <v>130511.5294689201</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14224,7 +14254,7 @@
         <v>135986.6805689201</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14257,7 +14287,7 @@
         <v>136215.3628689201</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14587,7 +14617,7 @@
         <v>253106.63567729</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14620,7 +14650,7 @@
         <v>190854.31667729</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14653,7 +14683,7 @@
         <v>191209.08287729</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14686,7 +14716,7 @@
         <v>189597.14627729</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15379,7 +15409,7 @@
         <v>66974.64832640006</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15511,7 +15541,7 @@
         <v>49601.10442640005</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15544,7 +15574,7 @@
         <v>48601.10442640005</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15577,7 +15607,7 @@
         <v>48602.40442640005</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15610,7 +15640,7 @@
         <v>43983.55542640005</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15643,7 +15673,7 @@
         <v>49650.92982640005</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15907,7 +15937,7 @@
         <v>38498.91282640005</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15940,7 +15970,7 @@
         <v>40578.91282640005</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15973,7 +16003,7 @@
         <v>40503.51282640005</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16006,7 +16036,7 @@
         <v>40507.34282640005</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16039,7 +16069,7 @@
         <v>39033.90272640005</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16072,7 +16102,7 @@
         <v>39035.30272640006</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
